--- a/LR3/table_1_44.xlsx
+++ b/LR3/table_1_44.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE42285-F228-445A-864E-F4E859513ECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0CDB3B-591B-45A9-85C8-1F07BE35AB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -62,99 +62,6 @@
     <t>Итого</t>
   </si>
   <si>
-    <t xml:space="preserve">Адельвахаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алтынов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Альсайед </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Асадуллин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Афанасьев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бикмухаметов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Боровик </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Галимов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гиниатулин </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гюрбюз </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Елеиссави </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ирканаев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исмаел </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Калоша </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Макаров </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мухаметгалиев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Низамова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Озотюрк </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Санутков </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сапожников </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сафиуллина </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стрижнев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сулу </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Угурлуэл </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фазлиахметов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ханов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хасаншина </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хассан </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шаабан </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шалаев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шарафан </t>
-  </si>
-  <si>
     <t>Шафигуллина</t>
   </si>
   <si>
@@ -180,6 +87,99 @@
   </si>
   <si>
     <t>3347,4 рубля</t>
+  </si>
+  <si>
+    <t>Адельвахаб</t>
+  </si>
+  <si>
+    <t>Алтынов</t>
+  </si>
+  <si>
+    <t>Альсайед</t>
+  </si>
+  <si>
+    <t>Асадуллин</t>
+  </si>
+  <si>
+    <t>Афанасьев</t>
+  </si>
+  <si>
+    <t>Бикмухаметов</t>
+  </si>
+  <si>
+    <t>Боровик</t>
+  </si>
+  <si>
+    <t>Галимов</t>
+  </si>
+  <si>
+    <t>Гиниатулин</t>
+  </si>
+  <si>
+    <t>Гюрбюз</t>
+  </si>
+  <si>
+    <t>Елеиссави</t>
+  </si>
+  <si>
+    <t>Ирканаев</t>
+  </si>
+  <si>
+    <t>Исмаел</t>
+  </si>
+  <si>
+    <t>Калоша</t>
+  </si>
+  <si>
+    <t>Макаров</t>
+  </si>
+  <si>
+    <t>Мухаметгалиев</t>
+  </si>
+  <si>
+    <t>Низамова</t>
+  </si>
+  <si>
+    <t>Озотюрк</t>
+  </si>
+  <si>
+    <t>Санутков</t>
+  </si>
+  <si>
+    <t>Сапожников</t>
+  </si>
+  <si>
+    <t>Сафиуллина</t>
+  </si>
+  <si>
+    <t>Стрижнев</t>
+  </si>
+  <si>
+    <t>Сулу</t>
+  </si>
+  <si>
+    <t>Угурлуэл</t>
+  </si>
+  <si>
+    <t>Фазлиахметов</t>
+  </si>
+  <si>
+    <t>Ханов</t>
+  </si>
+  <si>
+    <t>Хасаншина</t>
+  </si>
+  <si>
+    <t>Хассан</t>
+  </si>
+  <si>
+    <t>Шаабан</t>
+  </si>
+  <si>
+    <t>Шалаев</t>
+  </si>
+  <si>
+    <t>Шарафан</t>
   </si>
 </sst>
 </file>
@@ -576,7 +576,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AQ43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -668,7 +670,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -707,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>69.5</v>
@@ -746,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>69</v>
@@ -785,7 +787,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>68.5</v>
@@ -824,7 +826,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>68</v>
@@ -863,7 +865,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
         <v>67.5</v>
@@ -902,7 +904,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>67</v>
@@ -941,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>66.5</v>
@@ -980,7 +982,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>66</v>
@@ -1019,7 +1021,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>65.5</v>
@@ -1058,7 +1060,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>65</v>
@@ -1097,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>64.5</v>
@@ -1136,7 +1138,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1">
         <v>64</v>
@@ -1175,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>63.5</v>
@@ -1214,7 +1216,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>63</v>
@@ -1253,7 +1255,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <v>62.5</v>
@@ -1292,7 +1294,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C19" s="1">
         <v>62</v>
@@ -1331,7 +1333,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <v>61.5</v>
@@ -1370,7 +1372,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
         <v>61</v>
@@ -1409,7 +1411,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1">
         <v>60.5</v>
@@ -1448,7 +1450,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C23" s="1">
         <v>60</v>
@@ -1487,7 +1489,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C24" s="1">
         <v>59.5</v>
@@ -1526,7 +1528,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C25" s="1">
         <v>59</v>
@@ -1565,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C26" s="1">
         <v>58.5</v>
@@ -1604,7 +1606,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C27" s="1">
         <v>58</v>
@@ -1643,7 +1645,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C28" s="1">
         <v>57.5</v>
@@ -1682,7 +1684,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C29" s="1">
         <v>57</v>
@@ -1721,7 +1723,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C30" s="1">
         <v>56.5</v>
@@ -1760,7 +1762,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C31" s="1">
         <v>56</v>
@@ -1799,7 +1801,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C32" s="1">
         <v>55.5</v>
@@ -1838,7 +1840,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1">
         <v>55</v>
@@ -1877,7 +1879,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="C34" s="1">
         <v>54.5</v>
@@ -1916,7 +1918,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C35" s="1">
         <v>54</v>
@@ -1955,7 +1957,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="C36" s="1">
         <v>53.5</v>
@@ -1994,7 +1996,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C37" s="1">
         <v>53</v>
@@ -2033,7 +2035,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C38" s="1">
         <v>52.5</v>
@@ -2069,7 +2071,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="C40" s="1">
         <f>SUM(K3:K38)</f>
@@ -2078,7 +2080,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
         <f>SUM(C3:C38)/36</f>
@@ -2087,7 +2089,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2096,7 +2098,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>
